--- a/data/hotels_by_city/Dallas/Dallas_shard_365.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_365.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Ranaj888</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Michael B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r560660019-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>Traveling with tractor-trailer for Black History month always a challenge to try to find a place to stay that has a parking lot large enough.The staff was great on the phone and even better in person.cannot say enough about this hotel More</t>
   </si>
   <si>
+    <t>tteach1963</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r583498907-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>melvinsmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r573181728-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>brandylgreen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r563155585-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>This was a quick get away for my husband and I. We had a dinner to attend and afterward was looking forward to enjoying the Jacuzzi room we paid for. When we arrived there was a very large cock roach, had to move to another room in which we found (after our dinner out) 3 more small ones in the tub and on the coffee area. Not very pleased at all. Couldn't sleep, worried they would crawl on us during the night! At this point we left very early and did not complain because we knew we would not be back so what good would a free room do us? Due to the bug issue we will not be back......More</t>
   </si>
   <si>
+    <t>TonyCopp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r563006629-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>I'm relocating for work and found this hotel to be the best in the area. I spoke to the GM on the phone and Marjorie is delightful. The hotel accommodates your every need. Hot tub is great after a long day at work. Rooms are cleaned spotless daily and staff is very friendly.More</t>
   </si>
   <si>
+    <t>David G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r562596024-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>... at a decent price.  The room was up to date and in good shape, and the breakfast room was competently handled.  We are not giving this place a fifth star because housekeeping was knocking on our door BEFORE we had checked out.  And, it was still an hour and a half until checkout time.More</t>
   </si>
   <si>
+    <t>Joshua Shua N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r556669112-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -342,6 +366,9 @@
     <t>I was at this hotel for almost 3 weeks. The staff was accommodating and friendly. They cleaned my room every day. Coffee anytime day or night and Marie fed me in the morning!!! Thanks for giving me a pleasant stay!!!More</t>
   </si>
   <si>
+    <t>Teresa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r534965224-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t>The hotel was conveniently located close to the Telico Gin.  The room was clean and comfortable.  Breakfast had a wide selection and was included in the price. Holiday Inn Express is our go-to hotel whenever we have a quick stay somewhere.  More</t>
   </si>
   <si>
+    <t>NMvivian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r492783320-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -387,6 +417,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>cajunpeach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r478091987-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -414,6 +447,9 @@
     <t>Made our reservations 2 months in advanced and I wish I would have looked back at their website before we checked in. We came to Ennis to take our oldest to Diesel Nationals at Texas Motorcross and planned on letting our youngest swim, for him to enjoy something. We get here and pool area is closed due to remodel and all of first floor is under remodel. So our youngest didn't have anything to do and there's really nothing in this area unless you drive to Dallas 30 mins. Hotel was clean but you can tell it is time for remodel. Staff was very friendly. Breakfast was ok, if breakfast is not a big deal to you and you just want something to put on your stomach. There is a " hall monitor " lady in the breakfast area and I say it this way because she was watching me fix a plate for my 2 children that were in our room still sleeping. It was like I was stealing. Which she failed to realize how many people are in our room and my room rate included breakfast for all 4 of us. She just was gawking at me like I was doing something wrong. Anyway, I just wished I read this hotel website before checking in. Lesson learned. There is a little restaurant right next door that is pretty good. Walking distance. Cotton Patch More</t>
   </si>
   <si>
+    <t>SlidellGretchen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r473512661-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -438,6 +474,9 @@
     <t>The biggest problem with this hotel is the horrible Breakfast room chairs. I was amazed that each chair had the seat ripped in many places. In reading the reviews I see they have been like this a long time. If the Hotel does not have the funds to replace the chairs after all this time , where else might they be cutting corners ? Really bad chairs ....I was and continue  to be astonished by the shape they were in. We are loyal HIE customers quite surprised. Breakfast not so great either ,,,, we had just spent two nights at the HIE in Marble Falls  , Texas and the Breakfast was much better. On a more positive note: Room was large and seem to be clean tho a bit outdated . Staff friendly . Why can't you replace the chairs ? You know they are really bad . Sorry to slam you , I don't usually but really the cutting corners to such a degree really bothers me.,More</t>
   </si>
   <si>
+    <t>mskristin1209</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r472405166-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -459,6 +498,9 @@
     <t>This past Friday we took our clan to ennis like we do every year to go to the drive in theatre and we always stay here for the indoor pool bc we all LOVE swimming and it's too cold to swim outside right now. Unfortunately the pool was closed due to renovations so that was a number but the gentleman at the front desk, Nathan Burke, was extremely accommodating and went above and beyond to make our stay as excellent as possible (giving us extra ihg points to make up for the pool being out of commission and even gave us extra pillows and blankets since the pull out bed didn't have any). We will def be going back next year but we will make a point to make sure the pool is up and running beforehand but I understand that was in no way anyone's fault and look forward to swimming in the new pool area!More</t>
   </si>
   <si>
+    <t>fryfamilygermany</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r468686408-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -483,6 +525,9 @@
     <t>We stayed here while in town for a wedding and the staff was wonderful.  Because we had booked under a wedding block, they had a small gift bag for us..   The front desk personal was very friendly and helpful.More</t>
   </si>
   <si>
+    <t>1Lynn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r445644025-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -510,6 +555,9 @@
     <t>The staff was very nice. The room was clean and comfortable. I was concerned about possible freeway noise, but I heard nothing. I was there for a meeting and had to pick up pigs in blankets in the morning, found it easily with directions from the staff. Breakfast was very good as always. I stayed in Ennis because I am soooo not a morning person. I didn't want to go back out to eat so I grabbed a dinner from the freezer in their little store am enjoyed my room in peace and quiet.More</t>
   </si>
   <si>
+    <t>Sherri O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r428764439-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -537,6 +585,9 @@
     <t>We stayed at this hotel during the NRHA fall race in Ennis due to a mixup at the hotel in Waxahachie.  The room was clean, AC was cold.  My hubby loved the high bathroom sink.  Was surprised no safety bar inside the tub.  Drains were running slow.  Bedding was clean, but sheets were a little "thin" and worn.  Internet access excellent.  TV service met our needs.  Staff was extremely friendly.  Breakfast was excellent, well stocked with a wide variety of items.  Biggest complaint would be the extremely worn chairs in the dining room!  Decor was beautiful, but the worn chairs took away from that.  They definitely need recovering--now!!More</t>
   </si>
   <si>
+    <t>gene s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r396783091-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -564,6 +615,9 @@
     <t>Well I was looking for a decent motel to spend the night in. first off the motel luggage cart had flat tires. Room was clean with  king size bed ac was cold. Breakfast down stairs in the morning we found most of the chairs cloth seat torn and in need of repair.  Breakfast was decent.  AAA discount  was only $6 next time I will keep traveling until I find a Hampton inn or a marriottMore</t>
   </si>
   <si>
+    <t>e10441</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r388566924-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -591,6 +645,9 @@
     <t>Nice, clean comfortable room. Spacious and modern decor. Only spent the night and had a mishap. The way it was handled by the GM, disappointing. She gave us a complimentary stay, unfortunately a called from her and a apology would have been sufficien.  However, if a free night is given, I will not complain. We did not asked for anything, only to have it fixed, it wasnt.  The rest of the staff are very friendly and courteous. Great place to stay, hopefully you won't run into any issues.More</t>
   </si>
   <si>
+    <t>Rebecca S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r384934797-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -609,6 +666,9 @@
     <t>Very convenient location right next to interstate! Staff was very friendly and helpful! Hotel is pet friendly which was my main reason for staying there! Also had a great breakfast buffet!!!!! Most definitely will stay this location again!!More</t>
   </si>
   <si>
+    <t>511lindas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r379100993-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -636,6 +696,9 @@
     <t>The hotel is very clean, indoor pool and hot tub, free breakfast and easy access to interstate. Staff is friendly. Love the kurig coffee, that was a nice treat. Close to almost every restaurant and Wal-Mart.More</t>
   </si>
   <si>
+    <t>Kathy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r361614234-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -663,6 +726,9 @@
     <t>Rooms were clean and well stocked.  Mini fridge in room.  Arrived around 10 pm and they had our reservation printed out and ready.  Staff was pleasant.  Breakfast was as you would expect.  Much better than the Crowne Plaza we stayed at in Houston - all around.More</t>
   </si>
   <si>
+    <t>Ian W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r361475228-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -702,6 +768,9 @@
     <t>I really expected better quality from Holiday Inn Express even in a small town.  The cable TV service did not work.  You could watch a channel for less than 5 min. and it would suddenly lose the picture and say it was not authorized and you would have to turn it off and  on  The air conditioner did not work properly and the front desk told us to unplug and plug it in again.  That didn't work either.  The toilet kept running until my husband tinkered with it and then left the top off.  The chairs in the breakfast area were badly worn.  However, the room was clean and quiet.More</t>
   </si>
   <si>
+    <t>Angela B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r357944575-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -720,6 +789,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Andrew C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r352204191-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -738,6 +810,9 @@
     <t>After our sucess with this location in 2014, we decided to stop here again for our cruise trip to Galveston.  Actually, stayed here both going and coming.  Each time the hotel we very pleasant.  Lobby and sitting areas are clean and nice.  Parking is plentiful and easy to access.  Our room was nice, clean and had modern furniture.  We used the pool one night, and found it to be clean and well maintained.  They have a large continental breakfast, which has several hot items.  The hotel could use some touched up paint and fixes here and there on the walls/carpet, but otherwise is in good condition.  Front desk staff checked us in/out efficiently and quickly.If you're looking for a stopping off point between Kansas and Houston/Galveston, this hotel is the place to be.More</t>
   </si>
   <si>
+    <t>PlatinumAtMultiple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r341930118-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -765,6 +840,9 @@
     <t>The rooms, in comparison to the other hotels in Ennis, are huge and clean.  9 out of 10 of the desk staff I have interacted with have been fabulous. I found out the 1 that wasn't was let go because it was noticed. After staying at the Days Inn and having my luggage stolen (I'm sure it was by cleaning staff) and being bullied out of the lobby by drunken truck drivers at the LaQuinta, the Holiday Inn was a welcome improvement.More</t>
   </si>
   <si>
+    <t>Cherisa J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r341925452-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -783,6 +861,9 @@
     <t>I was a little worried after we entered the city of Ennis, TX. However, this hotel was great. The staff was helpful and pleasant. The room was clean and comfortable. The continental breakfast was just average. I will stay here again if passing through the area.More</t>
   </si>
   <si>
+    <t>txgirl049</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r335252265-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -810,6 +891,9 @@
     <t>After trying several different hotels every time, we stayed here again when in Ennis, TX visiting in-laws at Christmas.  Since we loved the King suite, this time tried the 2 bed suite since our son was traveling with us….HUGE room, very spacious with granite countertop in bathroom and bar area.  Two beds with fold out sofa would be great for a family, especially since there is an indoor pool.  Clean white linens and a fresh new room were what we were looking for.  Lotion, shampoo, and conditioner from Bath and Body Works.  Breakfast was fresh and great again, lots of choices with nice smiling staff.More</t>
   </si>
   <si>
+    <t>cathyss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r320928363-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -837,6 +921,9 @@
     <t>Very clean and very large room. I believe it was room 221 or 228. Had one king bed. Very Nice room for the price.  Last room on the floor, farthest from elevator. Had a washing machine and dryer on the floor we used. Would not want to be in a room close to washer though, it was noisy. Typical Holiday Inn express breakfast, which I think is slightly better than most but nothing great.More</t>
   </si>
   <si>
+    <t>yride2day</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r316730584-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -861,6 +948,9 @@
     <t>Clean rooms, sheets smelt nice. Bed didn't squeak. I tried a couple of times. We used the indoor pool and spa. The pool was warm. Great for cooler weather but probably not for the middle of summer. The room was very large. Breakfast did the job. More</t>
   </si>
   <si>
+    <t>Carol B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r313321834-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1005,9 @@
     <t>Clean, white linens and a fresh-smelling room greeted us after a long day traveling.   Easy access from Ennis. The check-in was easy and pleasant.  Our king suite was nice, had granite countertop bar and bathroom countertop.  Fairly quiet, no issues.  Only stayed one night, breakfast was plentiful, lots of options….pancake, instant oatmeal, yogurt, omelette, bacon, turkey sausage, gravy, muffins, juice, milk, coffee, fruit…Restaurant next door looked new also.More</t>
   </si>
   <si>
+    <t>Dawnelle L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r306038683-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -939,6 +1032,9 @@
     <t>This is a fairly new hotel, so the rooms are great.  Quiet location.  Convenient to restaurants and shopping.  Friendly people greet you when you walk in the door.  The room was comfortable and roomy with all the amenities.More</t>
   </si>
   <si>
+    <t>knr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r305075335-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -966,6 +1062,9 @@
     <t>Nice, quiet hotel on the northern end of Ennis.Pleasant hotel staff.  Hotel has a bit of weird smell, but was very clean.Breakfast looked just okay, but had the usual variety of foods.Indoor pool was fairly large.More</t>
   </si>
   <si>
+    <t>Sultana D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r295653139-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1089,9 @@
     <t>We were traveling from Denver, Colorado on our way to Southeast Texas.  My husband, foolish man, decided that he would drive straight through (trust me, I tried to warn him of the consequences....).  Before we got to Ennis, he realized that he would not be able to do this foolhardy endeavor.  We took the exit when we noticed the Holiday Inn Express sign.  The hotel is located in an area that is surrounded by industry.  So this is not a place to stay if you want to sightsee; you would only stay here if you are in transit or for work.  We arrived at 9:00 P.M., and the desk clerk was very friendly.  The room was pleasant and the decor was eclectic.  We had a comfortable sleep.  There were a couple of items that the hotel need to address.  The   ceiling light by the door--the bulb was out.  The tissue plastic box had a deep crack on top.  These are minor details, but the hotel should correct ( Room 402).  There is a hot breakfast in the mornings--delicious.  I would recommend this place to anyone who is traveling.More</t>
   </si>
   <si>
+    <t>Kyojin42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r233856499-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1107,9 @@
     <t>Stayed at this hotel during a business trip in Ennis. Really new and clean hotel with very friendly staff. Some local restaurants available. Morning breakfast was really good. King Room was very clean and ideal for business traveler. Will definitely stay here again.</t>
   </si>
   <si>
+    <t>KansasBichonowner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r226303174-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1128,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>peachlady99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r220976257-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1041,6 +1149,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Robert C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r220756601-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1056,6 +1167,9 @@
     <t>The hotel is in a good location on the freeway.  We found the place clean, quiet, and reasonably priced.  The breakfast good and fresh, just like you would expect from H. I. Express.  There is one drawback and it is small.  They do need a sign on the feeder road.  Their drive is easy to miss in the dark.  We will return here when we travel to this area again.</t>
   </si>
   <si>
+    <t>RMgigi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r204384735-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1083,6 +1197,9 @@
     <t>Dust and dirt that is as old as the cobwebs were in the first floor roll in shower room tell me cleaning is not done deeply very well. The webs were 10-12'' wide and as long across the wall above the curtains. Then as I showered the way the water hit the seat which stuck out past the shower it drowned the bathroom. Cleaned up with towels that turned gray as the floor was not really clean. Mentioned this to the front desk clerk who acted so surprised he kept saying, "Really?" But then I was interrupting his cell phone call. Oops! Bluebonnet trails were worth the trip.More</t>
   </si>
   <si>
+    <t>777jro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r173266587-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1218,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>32Shirley88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r169182932-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1248,9 @@
     <t>My hubby and I stayed here while traveling across the state. We were able to get a great deal on Priceline. Our room was nice and clean, one of the lamps did not work but it wasn't a very big deal since we got there late and left early.  The continental breakfast was great and the staff was very friendly.More</t>
   </si>
   <si>
+    <t>Becky B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r167207389-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1269,9 @@
     <t>We were missed placed from our home due to a water leak which flooded our home. The staff here is very helpful and polite. If there is something that you are not liking or problems with other guest they are quick to check out the problem and handle it for you. They were very quick in helping us move from a regular room to a suite. The Comp Breakfast is very good and they do a great job in trying to keep things full so people don't have to wait on it. We love the awesome Cinnamon Roll's they are a must have for sure... They also made my animals (dog's) feel at home and made them feel welcome... loved the staff. very friendly and helpful.More</t>
   </si>
   <si>
+    <t>rjmlem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r164487923-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1170,6 +1296,9 @@
     <t>Myself and three friends stayed here overnight on our way to Dallas.  As a "Priority Club" member, I booked two rooms for us, one using my club points, and one booked with a AAA rate.  I was honored as a Priority Club member at check-in, and all charges on my rooms were billed correctly.  The front desk agent was very competent and upbeat.  One of my friends enjoyed a late night dip in the pool, and we all enjoyed the after hour use of the "great room" where we enjoyed the HIE breakfast the next morning.  I only received one complaint from two of my traveling companions:  They stated that the beds were a little harder than they preferred.  Morning checkout was a breeze.  Some of my guests left some food in their room refrigerator, and when we called the hotel, they held it for us and we picked it up on our return trip.  This hotel is easily accessed from I-45.  I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Teri R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r162614944-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1317,9 @@
     <t>The staff is very friendly and helpful.  A nice location right next to I45 with plenty of stores around.  Very clean rooms and a nice indoor pool and fitness center. The free breakfast is great. They have lots to choose from. There's even healthy food.More</t>
   </si>
   <si>
+    <t>A-Steel-Guy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r162566688-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1206,6 +1338,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>ReneeH517</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r161657317-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1365,9 @@
     <t>The stay started out well.  Property has good location.  Room was clean.  I didn't receive what I expected, which was a little annoying (asked for 2 room with 2 queens, received a one room, handicapped).  I'm not sure how you can have a handicapped suite on the 3rd floor, with all standard size countertops and no way to get to the first floor if the elevators are out, but anyway.  Everything was good until the electricity went out.  I understand it is not the Holiday Inn's fault, but they need to be better able to deal with the situation.  The generator lighting was poor at best and I believe all the hot water heaters must have been electric, as the water was pretty cold.  As I think about it, this must have happened the night before also as the clock was flashing and the temp in the room was set at 66, when we arrived, which I thought was unusual.  Before the lights went out there was an explosion on the roof and we saw shingles on the ground in the morning.  Our theory is the transformer blew as there was electricity on in the surrounding businesses.  The staff wasn't very accomodating or nice about the situation in the morning.  Kept telling me how the situation wasn't their fault.  Not very customer focused.   Not sure I would stay here again.More</t>
   </si>
   <si>
+    <t>Mr13204u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r161540438-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1245,6 +1383,9 @@
     <t>Relatively new facility, very clean &amp; well maintained. Staff was very friendly &amp; helpful, processed my reservation/check in very quickly.Breakfast was typical fare and dining area very clean.Bed was firm and very comfortable.Only issue I had was very strong prevailing wind from the north for one night made my room sound like I was in a 200 year old house, whistling in around AC unit. Next night the wind died down and room was very nice</t>
   </si>
   <si>
+    <t>mas4467</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r160217596-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1263,6 +1404,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Journeying_Jean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r158722179-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1425,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Fufys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r130307086-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1455,9 @@
     <t>Very nice Hotel for a small city.  Staff were curteous and helpfull.  Rooms were clean and updated.  Breakfast was on time and about as good as you can get in a hotel for free.  The location was easy to get to and exit due to a street access behind he hotel.More</t>
   </si>
   <si>
+    <t>621jeremyg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r129267550-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1335,6 +1485,9 @@
     <t>This seems to be a pretty new hotel. Its very well kept, staff was friendly, as a priority club member, about what Ive come to expect from a HI-Express. BUT, I was surprised to find that this hotel didnt have a fridge or microwave in the regular rooms, only in the suites. Now, Ive been to 3rd world countries and this is the first hotel Ive stayed at in a long time that didnt have these amenities. I travel for business, so I need these things. Plus I came down at 6am for some coffee, and all they had was some cold decaf. AAAHHH!!! I'll be staying at the Days Inn next time :(More</t>
   </si>
   <si>
+    <t>Michael L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r128563479-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
   </si>
   <si>
@@ -1375,6 +1528,9 @@
   </si>
   <si>
     <t>Very good. The room was wonderful, large and spacious. Loved the clean feel and smell of the sheets and pillow cases. The breakfast is very good. Lots of variety and food. Service is greatMore</t>
+  </si>
+  <si>
+    <t>Blackmama P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55809-d1145938-r126365696-Holiday_Inn_Express_Hotel_Suites_Ennis-Ennis_Texas.html</t>
@@ -1900,43 +2056,47 @@
       <c r="A2" t="n">
         <v>58247</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>155561</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1950,50 +2110,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58247</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>967</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2005,56 +2169,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58247</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155562</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2074,50 +2242,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58247</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155563</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
         <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>69</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2131,50 +2303,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58247</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>155564</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2186,56 +2362,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58247</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>155565</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2253,56 +2433,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58247</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>5292</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2314,56 +2498,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58247</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155566</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2375,56 +2563,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58247</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>6993</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2436,56 +2628,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58247</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>155567</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2503,50 +2699,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58247</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>79521</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2558,56 +2758,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="X12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58247</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155568</v>
+      </c>
+      <c r="C13" t="s">
+        <v>143</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2625,56 +2829,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58247</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155569</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2688,50 +2896,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58247</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>155570</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2747,56 +2959,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="X15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58247</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>155571</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2812,56 +3028,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="X16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58247</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>21654</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2879,56 +3099,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58247</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>155572</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2940,56 +3164,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58247</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>155573</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3001,47 +3229,51 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="X19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58247</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>2522</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -3058,56 +3290,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58247</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>155574</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3125,56 +3361,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="X21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58247</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>9914</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3192,56 +3432,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="X22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Y22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58247</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>47878</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3253,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="X23" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Y23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24">
@@ -3272,28 +3516,28 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J24" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
@@ -3310,56 +3554,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="X24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="Y24" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58247</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>1099</v>
+      </c>
+      <c r="C25" t="s">
+        <v>250</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3373,50 +3621,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58247</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>3577</v>
+      </c>
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3436,50 +3688,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58247</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>155575</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="J27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3497,56 +3753,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="X27" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="Y27" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58247</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>155576</v>
+      </c>
+      <c r="C28" t="s">
+        <v>274</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3564,56 +3824,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="X28" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="Y28" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58247</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>155577</v>
+      </c>
+      <c r="C29" t="s">
+        <v>281</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="J29" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3631,56 +3895,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="X29" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="Y29" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58247</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>155578</v>
+      </c>
+      <c r="C30" t="s">
+        <v>291</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J30" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="K30" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3698,56 +3966,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="X30" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="Y30" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58247</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>155579</v>
+      </c>
+      <c r="C31" t="s">
+        <v>301</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="J31" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3759,56 +4031,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="X31" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="Y31" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58247</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>3959</v>
+      </c>
+      <c r="C32" t="s">
+        <v>310</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="J32" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="O32" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -3824,56 +4100,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="X32" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="Y32" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58247</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>155576</v>
+      </c>
+      <c r="C33" t="s">
+        <v>281</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="K33" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3885,56 +4165,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="X33" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="Y33" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58247</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>35673</v>
+      </c>
+      <c r="C34" t="s">
+        <v>329</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="J34" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="K34" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3950,56 +4234,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="X34" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="Y34" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58247</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>155580</v>
+      </c>
+      <c r="C35" t="s">
+        <v>338</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="J35" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="K35" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4015,56 +4303,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="X35" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="Y35" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58247</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>80265</v>
+      </c>
+      <c r="C36" t="s">
+        <v>348</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="J36" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="K36" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="L36" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4080,47 +4372,51 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="X36" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="Y36" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>58247</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>155581</v>
+      </c>
+      <c r="C37" t="s">
+        <v>357</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="J37" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="K37" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="L37" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
@@ -4139,50 +4435,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>58247</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>155582</v>
+      </c>
+      <c r="C38" t="s">
+        <v>363</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="J38" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="K38" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="L38" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4202,50 +4502,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>58247</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>155583</v>
+      </c>
+      <c r="C39" t="s">
+        <v>370</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="J39" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="K39" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="L39" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4265,50 +4569,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>58247</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>7548</v>
+      </c>
+      <c r="C40" t="s">
+        <v>377</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="J40" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="K40" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="L40" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4326,50 +4634,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>58247</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>155584</v>
+      </c>
+      <c r="C41" t="s">
+        <v>383</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="J41" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="K41" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="L41" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4391,56 +4703,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="X41" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="Y41" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>58247</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>155585</v>
+      </c>
+      <c r="C42" t="s">
+        <v>393</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="J42" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="K42" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="L42" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="O42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4464,50 +4780,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>58247</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>155586</v>
+      </c>
+      <c r="C43" t="s">
+        <v>400</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="J43" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="K43" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="L43" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4529,56 +4849,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="X43" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="Y43" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>58247</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>44325</v>
+      </c>
+      <c r="C44" t="s">
+        <v>410</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="J44" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="K44" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="L44" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="O44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4600,56 +4924,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="X44" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="Y44" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>58247</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>155587</v>
+      </c>
+      <c r="C45" t="s">
+        <v>417</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="J45" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="K45" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="L45" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="O45" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4673,41 +5001,45 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>58247</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>108740</v>
+      </c>
+      <c r="C46" t="s">
+        <v>426</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="J46" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="K46" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="L46" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -4734,56 +5066,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="X46" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="Y46" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>58247</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>155588</v>
+      </c>
+      <c r="C47" t="s">
+        <v>433</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="J47" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="K47" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="L47" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4807,50 +5143,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>58247</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>155589</v>
+      </c>
+      <c r="C48" t="s">
+        <v>440</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="J48" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="K48" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="L48" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="O48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -4872,56 +5212,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="X48" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="Y48" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>58247</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>155590</v>
+      </c>
+      <c r="C49" t="s">
+        <v>449</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="J49" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="K49" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="L49" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4945,50 +5289,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>58247</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>145796</v>
+      </c>
+      <c r="C50" t="s">
+        <v>455</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="J50" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="K50" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="L50" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5012,50 +5360,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>58247</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>155591</v>
+      </c>
+      <c r="C51" t="s">
+        <v>462</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="J51" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="K51" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="L51" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="O51" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5069,50 +5421,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>58247</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>49903</v>
+      </c>
+      <c r="C52" t="s">
+        <v>469</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="J52" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="K52" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="L52" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="O52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5134,56 +5490,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="X52" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="Y52" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>58247</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>155592</v>
+      </c>
+      <c r="C53" t="s">
+        <v>479</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="J53" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="K53" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="L53" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5205,56 +5565,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="X53" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="Y53" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>58247</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>876</v>
+      </c>
+      <c r="C54" t="s">
+        <v>489</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="J54" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="K54" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="L54" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="O54" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5278,7 +5642,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55">
@@ -5291,37 +5655,37 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="J55" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="K55" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="L55" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5343,56 +5707,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="X55" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Y55" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>58247</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>155593</v>
+      </c>
+      <c r="C56" t="s">
+        <v>504</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="J56" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="K56" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="L56" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="O56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5414,13 +5782,13 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="X56" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="Y56" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
